--- a/pred_ohlcv/54_21/2019-10-19 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XVG ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-211635.0006</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-212124.0006</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-212104.0006</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-212104.0006</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-212104.0006</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-212104.0006</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-212105.0006</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-214604.0006</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-942286.5445658598</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-939786.5445658598</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-930190.9971658599</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-935190.9971658599</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-868554.7512658599</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-812448.23746586</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-805441.61986586</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-871443.73136586</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-870943.73136586</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-983312.88046586</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1226658.05913414</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 XVG ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-211635.0006</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-211625.0006</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16616.91389999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-506267.82556586</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-537668.3898658599</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-768613.2837658598</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-942286.5445658598</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-939786.5445658598</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-930190.9971658599</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-934686.8630658599</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-868554.7512658599</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-807008.23746586</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-812448.23746586</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-805441.61986586</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-871443.73136586</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-870943.73136586</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-948337.31586586</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1428655.59013414</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1226658.05913414</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1226668.05913414</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
